--- a/31.12.2021 FOLYOPAK SAYIM LİSTESİ GERİ DÖNÜŞÜM.xlsx
+++ b/31.12.2021 FOLYOPAK SAYIM LİSTESİ GERİ DÖNÜŞÜM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A44AD9-A3ED-49C7-A2F0-C7DF44A5EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AEB2B-5161-4B44-871F-48096F90396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>Malzeme</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>BERTARAFA KONU TELEF (ÇÖP)</t>
+  </si>
+  <si>
+    <t>arif</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1695,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="Q21:R21"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2112,9 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12"/>
     </row>
@@ -2132,22 +2137,44 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="25">
+        <v>5307.4</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="26">
+        <v>4301</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="25">
+        <v>885.6</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="26">
+        <v>4301</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
